--- a/Dataset/Authors/PRUD_ham.xlsx
+++ b/Dataset/Authors/PRUD_ham.xlsx
@@ -5,113 +5,36 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Dropbox\ALEXANDER\STUDIA\2025_Database_composti\Auctores_DB\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634CABAC-CA29-4581-B4BB-B36D2D572E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA3AA17-1DE3-4258-907E-B1D96A47AA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3114C7E9-E16C-4E41-8D9B-A51A0F39CD8D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRUD_ham" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+  <si>
+    <t>Aurelius Prudentius Clemens</t>
+  </si>
   <si>
     <t>Hamartigenia</t>
   </si>
   <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>1B</t>
-  </si>
-  <si>
-    <t>1C</t>
-  </si>
-  <si>
-    <t>1D</t>
-  </si>
-  <si>
-    <t>1E</t>
-  </si>
-  <si>
-    <t>1F</t>
-  </si>
-  <si>
-    <t>1G</t>
-  </si>
-  <si>
-    <t>1H</t>
-  </si>
-  <si>
-    <t>1Z</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>2C</t>
-  </si>
-  <si>
-    <t>3A</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>3C</t>
-  </si>
-  <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>4B</t>
-  </si>
-  <si>
-    <t>4C</t>
-  </si>
-  <si>
-    <t>4D</t>
-  </si>
-  <si>
-    <t>6A</t>
-  </si>
-  <si>
-    <t>6B</t>
-  </si>
-  <si>
-    <t>6C</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Gi</t>
-  </si>
-  <si>
-    <t>Gr</t>
+    <t>PRUD. ham.</t>
+  </si>
+  <si>
+    <t>Poetry</t>
+  </si>
+  <si>
+    <t>Christian literature</t>
   </si>
   <si>
     <t>allophylus</t>
@@ -156,6 +79,9 @@
     <t>gymnosophista</t>
   </si>
   <si>
+    <t>idololatris</t>
+  </si>
+  <si>
     <t>iudex</t>
   </si>
   <si>
@@ -267,46 +193,10 @@
     <t>versicolor</t>
   </si>
   <si>
-    <t>Aurelius Prudentius Clemens</t>
-  </si>
-  <si>
-    <t>PRUD. ham.</t>
-  </si>
-  <si>
-    <t>idololatris</t>
-  </si>
-  <si>
-    <t>Christian literature</t>
-  </si>
-  <si>
-    <t>Poetry</t>
-  </si>
-  <si>
-    <t>Nomina agentis</t>
-  </si>
-  <si>
-    <t>Nomina actionis</t>
-  </si>
-  <si>
-    <t>Nominal abstacts</t>
-  </si>
-  <si>
-    <t>Bahuvrīhi</t>
-  </si>
-  <si>
-    <t>Determinative compounds</t>
-  </si>
-  <si>
-    <t>Coordinative compounds</t>
-  </si>
-  <si>
-    <t>Juxtapositions</t>
-  </si>
-  <si>
-    <t>Grecisms</t>
-  </si>
-  <si>
-    <t>Compound</t>
+    <t>Compounds</t>
+  </si>
+  <si>
+    <t>Occurrences</t>
   </si>
 </sst>
 </file>
@@ -382,34 +272,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -725,257 +608,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FFB68B-76B2-4960-BC34-A4D09D9D4C0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="27" width="4.6640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="40.77734375" style="5" customWidth="1"/>
+    <col min="2" max="28" width="8.88671875" style="5" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
         <v>4</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="4">
         <v>5</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-    </row>
-    <row r="2" spans="1:27" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-    </row>
-    <row r="3" spans="1:27" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-    </row>
-    <row r="4" spans="1:27" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA4" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+    </row>
+    <row r="2" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+    </row>
+    <row r="3" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+    </row>
+    <row r="4" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" s="6">
-        <v>5</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1000,18 +799,16 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
-      <c r="AA6" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="7"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -1038,13 +835,13 @@
       <c r="AA7" s="7"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -1071,14 +868,14 @@
       <c r="AA8" s="7"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="7">
-        <v>2</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1104,10 +901,12 @@
       <c r="AA9" s="7"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="7"/>
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1122,9 +921,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -1137,13 +934,13 @@
       <c r="AA10" s="7"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
         <v>3</v>
       </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1170,10 +967,12 @@
       <c r="AA11" s="7"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1186,9 +985,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="7">
-        <v>2</v>
-      </c>
+      <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -1203,8 +1000,8 @@
       <c r="AA12" s="7"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>33</v>
+      <c r="A13" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
@@ -1236,15 +1033,15 @@
       <c r="AA13" s="7"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1269,14 +1066,14 @@
       <c r="AA14" s="7"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="7"/>
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>4</v>
+      </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="7">
-        <v>4</v>
-      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1302,13 +1099,13 @@
       <c r="AA15" s="7"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1335,8 +1132,8 @@
       <c r="AA16" s="7"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>37</v>
+      <c r="A17" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
@@ -1368,13 +1165,13 @@
       <c r="AA17" s="7"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
+      <c r="A18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1401,10 +1198,12 @@
       <c r="AA18" s="7"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1429,15 +1228,15 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
-      <c r="AA19" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA19" s="7"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1462,19 +1261,17 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
-      <c r="AA20" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA20" s="7"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="7"/>
+      <c r="A21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3</v>
+      </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="7">
-        <v>3</v>
-      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1500,10 +1297,12 @@
       <c r="AA21" s="7"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="7"/>
+      <c r="A22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1512,9 +1311,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="7">
-        <v>1</v>
-      </c>
+      <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -1533,8 +1330,8 @@
       <c r="AA22" s="7"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>42</v>
+      <c r="A23" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B23" s="7">
         <v>1</v>
@@ -1566,13 +1363,13 @@
       <c r="AA23" s="7"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
+      <c r="A24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1599,16 +1396,16 @@
       <c r="AA24" s="7"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="7"/>
+      <c r="A25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7">
-        <v>3</v>
-      </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -1632,13 +1429,13 @@
       <c r="AA25" s="7"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
+      <c r="A26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -1665,10 +1462,12 @@
       <c r="AA26" s="7"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="7"/>
+      <c r="A27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1677,9 +1476,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="7">
-        <v>1</v>
-      </c>
+      <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -1698,13 +1495,13 @@
       <c r="AA27" s="7"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
+      <c r="A28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -1731,13 +1528,13 @@
       <c r="AA28" s="7"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
+      <c r="A29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -1764,8 +1561,8 @@
       <c r="AA29" s="7"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>49</v>
+      <c r="A30" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B30" s="7">
         <v>1</v>
@@ -1797,8 +1594,8 @@
       <c r="AA30" s="7"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>50</v>
+      <c r="A31" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
@@ -1830,15 +1627,15 @@
       <c r="AA31" s="7"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="7"/>
+      <c r="A32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7">
+        <v>2</v>
+      </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="7">
-        <v>2</v>
-      </c>
+      <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -1863,8 +1660,8 @@
       <c r="AA32" s="7"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>52</v>
+      <c r="A33" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B33" s="7">
         <v>1</v>
@@ -1896,14 +1693,14 @@
       <c r="AA33" s="7"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="7"/>
+      <c r="A34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7">
+        <v>2</v>
+      </c>
       <c r="C34" s="7"/>
-      <c r="D34" s="7">
-        <v>2</v>
-      </c>
+      <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -1929,8 +1726,8 @@
       <c r="AA34" s="7"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>54</v>
+      <c r="A35" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B35" s="7">
         <v>1</v>
@@ -1962,13 +1759,13 @@
       <c r="AA35" s="7"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
+      <c r="A36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1</v>
+      </c>
+      <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -1995,10 +1792,12 @@
       <c r="AA36" s="7"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="7"/>
+      <c r="A37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2</v>
+      </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -2011,9 +1810,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="7">
-        <v>2</v>
-      </c>
+      <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
@@ -2028,14 +1825,14 @@
       <c r="AA37" s="7"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="7"/>
+      <c r="A38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7">
+        <v>9</v>
+      </c>
       <c r="C38" s="7"/>
-      <c r="D38" s="7">
-        <v>9</v>
-      </c>
+      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -2061,10 +1858,12 @@
       <c r="AA38" s="7"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="7"/>
+      <c r="A39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7">
+        <v>3</v>
+      </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -2073,9 +1872,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
-      <c r="K39" s="7">
-        <v>3</v>
-      </c>
+      <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -2094,10 +1891,12 @@
       <c r="AA39" s="7"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="7"/>
+      <c r="A40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7">
+        <v>1</v>
+      </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -2106,9 +1905,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="7">
-        <v>1</v>
-      </c>
+      <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
@@ -2127,10 +1924,12 @@
       <c r="AA40" s="7"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="7"/>
+      <c r="A41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7">
+        <v>1</v>
+      </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -2155,18 +1954,16 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
-      <c r="AA41" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA41" s="7"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7">
-        <v>1</v>
-      </c>
+      <c r="A42" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -2193,10 +1990,12 @@
       <c r="AA42" s="7"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="7"/>
+      <c r="A43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1</v>
+      </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -2216,9 +2015,7 @@
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
-      <c r="V43" s="7">
-        <v>1</v>
-      </c>
+      <c r="V43" s="7"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
@@ -2226,10 +2023,12 @@
       <c r="AA43" s="7"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="7"/>
+      <c r="A44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -2250,19 +2049,19 @@
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
-      <c r="W44" s="7">
-        <v>1</v>
-      </c>
+      <c r="W44" s="7"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="7"/>
+      <c r="A45" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1</v>
+      </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -2282,9 +2081,7 @@
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
-      <c r="V45" s="7">
-        <v>1</v>
-      </c>
+      <c r="V45" s="7"/>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
@@ -2292,14 +2089,14 @@
       <c r="AA45" s="7"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="7"/>
+      <c r="A46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7">
+        <v>2</v>
+      </c>
       <c r="C46" s="7"/>
-      <c r="D46" s="7">
-        <v>2</v>
-      </c>
+      <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -2325,14 +2122,14 @@
       <c r="AA46" s="7"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="7"/>
+      <c r="A47" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1</v>
+      </c>
       <c r="C47" s="7"/>
-      <c r="D47" s="7">
-        <v>1</v>
-      </c>
+      <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -2358,10 +2155,12 @@
       <c r="AA47" s="7"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="7"/>
+      <c r="A48" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1</v>
+      </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -2375,9 +2174,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="7">
-        <v>1</v>
-      </c>
+      <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
@@ -2391,10 +2188,12 @@
       <c r="AA48" s="7"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="7"/>
+      <c r="A49" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -2415,22 +2214,20 @@
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
-      <c r="W49" s="7">
-        <v>1</v>
-      </c>
+      <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7">
-        <v>1</v>
-      </c>
+      <c r="A50" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7">
+        <v>1</v>
+      </c>
+      <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -2457,13 +2254,13 @@
       <c r="AA50" s="7"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7">
-        <v>1</v>
-      </c>
+      <c r="A51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -2490,10 +2287,12 @@
       <c r="AA51" s="7"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="7"/>
+      <c r="A52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7">
+        <v>1</v>
+      </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -2509,9 +2308,7 @@
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
-      <c r="R52" s="7">
-        <v>1</v>
-      </c>
+      <c r="R52" s="7"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
@@ -2523,14 +2320,14 @@
       <c r="AA52" s="7"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="7"/>
+      <c r="A53" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7">
+        <v>2</v>
+      </c>
       <c r="C53" s="7"/>
-      <c r="D53" s="7">
-        <v>2</v>
-      </c>
+      <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
@@ -2556,13 +2353,13 @@
       <c r="AA53" s="7"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7">
+      <c r="A54" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7">
         <v>2</v>
       </c>
+      <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -2589,10 +2386,12 @@
       <c r="AA54" s="7"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="7"/>
+      <c r="A55" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7">
+        <v>1</v>
+      </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -2609,9 +2408,7 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="7">
-        <v>1</v>
-      </c>
+      <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
@@ -2622,13 +2419,13 @@
       <c r="AA55" s="7"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7">
-        <v>1</v>
-      </c>
+      <c r="A56" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7">
+        <v>1</v>
+      </c>
+      <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -2655,10 +2452,12 @@
       <c r="AA56" s="7"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="7"/>
+      <c r="A57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -2673,9 +2472,7 @@
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
-      <c r="Q57" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -2688,17 +2485,7 @@
       <c r="AA57" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:X4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="Y5" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>